--- a/V13 - Malicious Code Controls.xlsx
+++ b/V13 - Malicious Code Controls.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25808"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanderaj/src/ASVS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Since</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>V13.1</t>
   </si>
@@ -88,58 +83,31 @@
     <t>V13.10</t>
   </si>
   <si>
-    <t>Verify all malicious activity is adequately sandboxed, containerized or isolated to delay and deter attackers from attacking other applications.</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>Verify all malicious activity is adequately sandboxed.</t>
   </si>
   <si>
     <t>V13.11</t>
   </si>
   <si>
     <t>Verify that sensitive data is rapidly sanitized from memory as soon as it is no longer needed and handled in accordance to functions and techniques supported by the framework/library/operating system.</t>
-  </si>
-  <si>
-    <t>
-</t>
-  </si>
-  <si>
-    <t>V13.12</t>
-  </si>
-  <si>
-    <t>Verify that a code review looks for malicious code, back doors, easter eggs, and logic flaws</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF404040"/>
-      <name val="Titillium Web"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11.0"/>
-      <color rgb="FF404040"/>
-      <name val="Titillium Web"/>
-    </font>
-    <font/>
-    <font>
-      <strike/>
+      <name val="Titillium WebLight"/>
     </font>
   </fonts>
   <fills count="5">
@@ -147,24 +115,24 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCFCFC"/>
-        <bgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,62 +142,94 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4127500" y="0"/>
+          <a:ext cx="101600" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -239,32 +239,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="2514600"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -275,32 +294,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="5715000"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -311,32 +349,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="8229600"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -347,32 +404,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="10744200"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -383,32 +459,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="13030200"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -419,32 +514,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="14859000"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -455,32 +569,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="17373600"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -491,32 +624,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="19659600"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -527,32 +679,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="22402800"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -563,281 +734,452 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="12" name="image45.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
+          <a:off x="4127500" y="23545800"/>
+          <a:ext cx="101600" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:ext cx="95250" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="13.44" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="71.0"/>
-    <col customWidth="1" min="3" max="6" width="10.56"/>
+    <col min="2" max="2" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="2" ht="36.0" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="3" ht="36.0" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" ht="36.0" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" ht="36.0" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="E15" s="11">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="13"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="13"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="13"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>